--- a/Thresholding/Results/HK_G_acc_LG.xlsx
+++ b/Thresholding/Results/HK_G_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
   <si>
     <t>HK_G_acc_LG</t>
   </si>
@@ -69,127 +72,127 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>98.418277680140591</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>98.242530755711783</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>98.418277680140591</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>98.066783831282962</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="26">
@@ -199,7 +202,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="28">
@@ -209,107 +212,107 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>98.418277680140591</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>98.594024604569412</v>
+        <v>97.407407407407405</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>98.769771528998234</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>99.121265377855877</v>
+        <v>99.259259259259252</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>97.89103690685414</v>
+        <v>97.407407407407405</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>97.539543057996482</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>98.418277680140591</v>
+        <v>97.407407407407405</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>99.648506151142357</v>
+        <v>99.629629629629633</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>99.824253075571178</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>98.769771528998234</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_LG.xlsx
+++ b/Thresholding/Results/HK_G_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
   <si>
     <t>HK_G_acc_LG</t>
   </si>
@@ -72,127 +75,127 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>97.777777777777771</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>97.777777777777771</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>97.777777777777771</v>
+        <v>98.594024604569412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>98.148148148148152</v>
+        <v>98.418277680140591</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>97.777777777777771</v>
+        <v>98.242530755711783</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>98.148148148148152</v>
+        <v>98.594024604569412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>98.148148148148152</v>
+        <v>98.594024604569412</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>98.148148148148152</v>
+        <v>98.594024604569412</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>97.777777777777771</v>
+        <v>98.594024604569412</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>98.148148148148152</v>
+        <v>98.418277680140591</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>97.777777777777771</v>
+        <v>98.594024604569412</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>97.777777777777771</v>
+        <v>98.066783831282962</v>
       </c>
     </row>
     <row r="26">
@@ -202,7 +205,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="28">
@@ -212,107 +215,107 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>97.777777777777771</v>
+        <v>98.418277680140591</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>97.407407407407405</v>
+        <v>98.594024604569412</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>97.777777777777771</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>97.777777777777771</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>99.259259259259252</v>
+        <v>99.121265377855877</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>97.407407407407405</v>
+        <v>97.89103690685414</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>97.777777777777771</v>
+        <v>97.539543057996482</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>97.407407407407405</v>
+        <v>98.418277680140591</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>99.629629629629633</v>
+        <v>99.648506151142357</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>100</v>
+        <v>99.824253075571178</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>97.777777777777771</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_LG.xlsx
+++ b/Thresholding/Results/HK_G_acc_LG.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
   <si>
     <t>HK_G_acc_LG</t>
   </si>
@@ -75,7 +81,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/HK_G_acc_LG.xlsx
+++ b/Thresholding/Results/HK_G_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
   <si>
     <t>HK_G_acc_LG</t>
   </si>
@@ -81,127 +84,127 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>98.418277680140591</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>98.242530755711783</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>98.418277680140591</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>98.066783831282962</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="26">
@@ -211,7 +214,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="28">
@@ -221,107 +224,107 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>98.418277680140591</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>98.594024604569412</v>
+        <v>97.407407407407405</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>98.769771528998234</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>99.121265377855877</v>
+        <v>99.259259259259252</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>97.89103690685414</v>
+        <v>97.407407407407405</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>97.539543057996482</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>98.418277680140591</v>
+        <v>97.407407407407405</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>99.648506151142357</v>
+        <v>99.629629629629633</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>99.824253075571178</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>98.769771528998234</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_LG.xlsx
+++ b/Thresholding/Results/HK_G_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
   <si>
     <t>HK_G_acc_LG</t>
   </si>
@@ -84,7 +87,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/HK_G_acc_LG.xlsx
+++ b/Thresholding/Results/HK_G_acc_LG.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
   <si>
     <t>HK_G_acc_LG</t>
   </si>
@@ -87,247 +96,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>100</v>
+        <v>73.369565217391312</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>100</v>
+        <v>73.369565217391312</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>97.407407407407405</v>
+        <v>71.467391304347828</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>99.259259259259252</v>
+        <v>72.826086956521735</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>97.407407407407405</v>
+        <v>71.467391304347828</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>97.407407407407405</v>
+        <v>71.467391304347828</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>99.629629629629633</v>
+        <v>73.097826086956516</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>100</v>
+        <v>73.369565217391312</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>97.777777777777771</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>98.148148148148152</v>
+        <v>72.010869565217391</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_LG.xlsx
+++ b/Thresholding/Results/HK_G_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
   <si>
     <t>HK_G_acc_LG</t>
   </si>
@@ -96,247 +99,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>71.739130434782609</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>71.739130434782609</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>71.739130434782609</v>
+        <v>76.230661040787624</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>72.010869565217391</v>
+        <v>76.371308016877634</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>72.010869565217391</v>
+        <v>76.371308016877634</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>72.010869565217391</v>
+        <v>76.371308016877634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>72.010869565217391</v>
+        <v>76.090014064697613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>72.010869565217391</v>
+        <v>76.371308016877634</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>72.010869565217391</v>
+        <v>76.371308016877634</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>71.739130434782609</v>
+        <v>75.949367088607602</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>72.010869565217391</v>
+        <v>76.230661040787624</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>72.010869565217391</v>
+        <v>76.230661040787624</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>72.010869565217391</v>
+        <v>76.230661040787624</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>71.739130434782609</v>
+        <v>76.230661040787624</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>72.010869565217391</v>
+        <v>76.090014064697613</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>71.739130434782609</v>
+        <v>76.230661040787624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>71.739130434782609</v>
+        <v>75.808720112517577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>73.369565217391312</v>
+        <v>77.355836849507725</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>73.369565217391312</v>
+        <v>77.355836849507725</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>71.739130434782609</v>
+        <v>76.090014064697613</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>71.467391304347828</v>
+        <v>76.230661040787624</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>71.739130434782609</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>71.739130434782609</v>
+        <v>76.371308016877634</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>72.826086956521735</v>
+        <v>76.65260196905767</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>71.467391304347828</v>
+        <v>75.668073136427566</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>71.739130434782609</v>
+        <v>75.386779184247544</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>71.467391304347828</v>
+        <v>76.090014064697613</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>73.097826086956516</v>
+        <v>77.074542897327703</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>73.369565217391312</v>
+        <v>77.215189873417728</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>72.010869565217391</v>
+        <v>76.371308016877634</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>71.739130434782609</v>
+        <v>76.371308016877634</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>72.010869565217391</v>
+        <v>76.371308016877634</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>72.010869565217391</v>
+        <v>76.371308016877634</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>72.010869565217391</v>
+        <v>76.371308016877634</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>72.010869565217391</v>
+        <v>76.511954992967645</v>
       </c>
     </row>
   </sheetData>
